--- a/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
+++ b/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
+++ b/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
+++ b/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5566,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -6182,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="R119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -11278,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="R207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -12622,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="R217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="R224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -14918,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="R258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -15982,7 +15982,7 @@
         <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="R284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -17382,7 +17382,7 @@
         <v>2</v>
       </c>
       <c r="R302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -17606,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="R306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -17774,7 +17774,7 @@
         <v>2</v>
       </c>
       <c r="R309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -18222,7 +18222,7 @@
         <v>1</v>
       </c>
       <c r="R317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -18894,7 +18894,7 @@
         <v>2</v>
       </c>
       <c r="R329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -19846,7 +19846,7 @@
         <v>2</v>
       </c>
       <c r="R346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -20182,7 +20182,7 @@
         <v>1</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -20406,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="R356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -20854,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -21302,7 +21302,7 @@
         <v>2</v>
       </c>
       <c r="R372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -22982,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -23374,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="R409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -23486,7 +23486,7 @@
         <v>1</v>
       </c>
       <c r="R411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -25390,7 +25390,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="R455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -26678,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -27014,7 +27014,7 @@
         <v>2</v>
       </c>
       <c r="R474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="R479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="R482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -28078,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="R493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -28190,7 +28190,7 @@
         <v>2</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -28918,7 +28918,7 @@
         <v>2</v>
       </c>
       <c r="R508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -29366,7 +29366,7 @@
         <v>2</v>
       </c>
       <c r="R516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -30262,7 +30262,7 @@
         <v>1</v>
       </c>
       <c r="R532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="R546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -31830,7 +31830,7 @@
         <v>2</v>
       </c>
       <c r="R560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -33958,7 +33958,7 @@
         <v>2</v>
       </c>
       <c r="R598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="R600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -34462,7 +34462,7 @@
         <v>1</v>
       </c>
       <c r="R607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -36030,7 +36030,7 @@
         <v>2</v>
       </c>
       <c r="R635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636">
@@ -36758,7 +36758,7 @@
         <v>2</v>
       </c>
       <c r="R648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -38158,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="R673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -39166,7 +39166,7 @@
         <v>2</v>
       </c>
       <c r="R691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -39446,7 +39446,7 @@
         <v>1</v>
       </c>
       <c r="R696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -39950,7 +39950,7 @@
         <v>1</v>
       </c>
       <c r="R705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -40566,7 +40566,7 @@
         <v>2</v>
       </c>
       <c r="R716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717">
@@ -40734,7 +40734,7 @@
         <v>1</v>
       </c>
       <c r="R719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -43198,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="R763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -43478,7 +43478,7 @@
         <v>1</v>
       </c>
       <c r="R768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -43982,7 +43982,7 @@
         <v>2</v>
       </c>
       <c r="R777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778">
@@ -44542,7 +44542,7 @@
         <v>1</v>
       </c>
       <c r="R787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -44990,7 +44990,7 @@
         <v>1</v>
       </c>
       <c r="R795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
@@ -46166,7 +46166,7 @@
         <v>2</v>
       </c>
       <c r="R816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -47622,7 +47622,7 @@
         <v>2</v>
       </c>
       <c r="R842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843">
@@ -47902,7 +47902,7 @@
         <v>1</v>
       </c>
       <c r="R847" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -48910,7 +48910,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -49862,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="R882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -49974,7 +49974,7 @@
         <v>2</v>
       </c>
       <c r="R884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -50254,7 +50254,7 @@
         <v>1</v>
       </c>
       <c r="R889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -50422,7 +50422,7 @@
         <v>2</v>
       </c>
       <c r="R892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893">
@@ -51094,7 +51094,7 @@
         <v>1</v>
       </c>
       <c r="R904" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -51990,7 +51990,7 @@
         <v>1</v>
       </c>
       <c r="R920" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -52662,7 +52662,7 @@
         <v>2</v>
       </c>
       <c r="R932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933">
@@ -53782,7 +53782,7 @@
         <v>2</v>
       </c>
       <c r="R952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -54286,7 +54286,7 @@
         <v>2</v>
       </c>
       <c r="R961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -55630,7 +55630,7 @@
         <v>2</v>
       </c>
       <c r="R985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986">
@@ -55910,7 +55910,7 @@
         <v>1</v>
       </c>
       <c r="R990" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991">
@@ -56358,7 +56358,7 @@
         <v>1</v>
       </c>
       <c r="R998" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -56974,7 +56974,7 @@
         <v>2</v>
       </c>
       <c r="R1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -57702,7 +57702,7 @@
         <v>1</v>
       </c>
       <c r="R1022" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023">
@@ -57926,7 +57926,7 @@
         <v>2</v>
       </c>
       <c r="R1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -58710,7 +58710,7 @@
         <v>1</v>
       </c>
       <c r="R1040" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -60222,7 +60222,7 @@
         <v>2</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -60894,7 +60894,7 @@
         <v>2</v>
       </c>
       <c r="R1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -62182,7 +62182,7 @@
         <v>1</v>
       </c>
       <c r="R1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -65430,7 +65430,7 @@
         <v>2</v>
       </c>
       <c r="R1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161">
@@ -65766,7 +65766,7 @@
         <v>1</v>
       </c>
       <c r="R1166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -67054,7 +67054,7 @@
         <v>2</v>
       </c>
       <c r="R1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -68006,7 +68006,7 @@
         <v>2</v>
       </c>
       <c r="R1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207">
@@ -68398,7 +68398,7 @@
         <v>2</v>
       </c>
       <c r="R1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214">
@@ -68846,7 +68846,7 @@
         <v>1</v>
       </c>
       <c r="R1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222">
@@ -71422,7 +71422,7 @@
         <v>2</v>
       </c>
       <c r="R1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268">
@@ -71646,7 +71646,7 @@
         <v>1</v>
       </c>
       <c r="R1271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272">
@@ -71814,7 +71814,7 @@
         <v>2</v>
       </c>
       <c r="R1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -73998,7 +73998,7 @@
         <v>2</v>
       </c>
       <c r="R1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314">
@@ -74390,7 +74390,7 @@
         <v>1</v>
       </c>
       <c r="R1320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321">
@@ -74782,7 +74782,7 @@
         <v>2</v>
       </c>
       <c r="R1327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328">
@@ -75342,7 +75342,7 @@
         <v>2</v>
       </c>
       <c r="R1337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1338">
@@ -75622,7 +75622,7 @@
         <v>1</v>
       </c>
       <c r="R1342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343">
@@ -76070,7 +76070,7 @@
         <v>2</v>
       </c>
       <c r="R1350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -76798,7 +76798,7 @@
         <v>1</v>
       </c>
       <c r="R1363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364">
@@ -76966,7 +76966,7 @@
         <v>2</v>
       </c>
       <c r="R1366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1367">
@@ -77414,7 +77414,7 @@
         <v>1</v>
       </c>
       <c r="R1374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -78198,7 +78198,7 @@
         <v>1</v>
       </c>
       <c r="R1388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
@@ -79094,7 +79094,7 @@
         <v>2</v>
       </c>
       <c r="R1404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1405">
@@ -79430,7 +79430,7 @@
         <v>1</v>
       </c>
       <c r="R1410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411">
@@ -80382,7 +80382,7 @@
         <v>1</v>
       </c>
       <c r="R1427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -82118,7 +82118,7 @@
         <v>2</v>
       </c>
       <c r="R1458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1459">
@@ -82734,7 +82734,7 @@
         <v>2</v>
       </c>
       <c r="R1469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
+++ b/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5566,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6182,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="R102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="R119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -11278,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="R193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="R207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -12622,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="R217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -14918,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="R258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -15982,7 +15982,7 @@
         <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="R284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -17382,7 +17382,7 @@
         <v>2</v>
       </c>
       <c r="R302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -17606,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="R306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -17774,7 +17774,7 @@
         <v>2</v>
       </c>
       <c r="R309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -18222,7 +18222,7 @@
         <v>1</v>
       </c>
       <c r="R317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -18894,7 +18894,7 @@
         <v>2</v>
       </c>
       <c r="R329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -19846,7 +19846,7 @@
         <v>2</v>
       </c>
       <c r="R346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -20182,7 +20182,7 @@
         <v>1</v>
       </c>
       <c r="R352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -20406,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="R356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -20854,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="R364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -21302,7 +21302,7 @@
         <v>2</v>
       </c>
       <c r="R372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -22982,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -23374,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="R409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -23486,7 +23486,7 @@
         <v>1</v>
       </c>
       <c r="R411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -25390,7 +25390,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="R455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -26678,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="R468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -27014,7 +27014,7 @@
         <v>2</v>
       </c>
       <c r="R474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="R479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="R482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -28078,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="R493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -28190,7 +28190,7 @@
         <v>2</v>
       </c>
       <c r="R495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -28918,7 +28918,7 @@
         <v>2</v>
       </c>
       <c r="R508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -29366,7 +29366,7 @@
         <v>2</v>
       </c>
       <c r="R516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -30262,7 +30262,7 @@
         <v>1</v>
       </c>
       <c r="R532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="R546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -31830,7 +31830,7 @@
         <v>2</v>
       </c>
       <c r="R560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -33958,7 +33958,7 @@
         <v>2</v>
       </c>
       <c r="R598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="R600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -34462,7 +34462,7 @@
         <v>1</v>
       </c>
       <c r="R607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -36030,7 +36030,7 @@
         <v>2</v>
       </c>
       <c r="R635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -36758,7 +36758,7 @@
         <v>2</v>
       </c>
       <c r="R648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -38158,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="R673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -39166,7 +39166,7 @@
         <v>2</v>
       </c>
       <c r="R691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -39446,7 +39446,7 @@
         <v>1</v>
       </c>
       <c r="R696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -39950,7 +39950,7 @@
         <v>1</v>
       </c>
       <c r="R705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -40566,7 +40566,7 @@
         <v>2</v>
       </c>
       <c r="R716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -40734,7 +40734,7 @@
         <v>1</v>
       </c>
       <c r="R719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -43198,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="R763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -43478,7 +43478,7 @@
         <v>1</v>
       </c>
       <c r="R768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -43982,7 +43982,7 @@
         <v>2</v>
       </c>
       <c r="R777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -44542,7 +44542,7 @@
         <v>1</v>
       </c>
       <c r="R787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -44990,7 +44990,7 @@
         <v>1</v>
       </c>
       <c r="R795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -46166,7 +46166,7 @@
         <v>2</v>
       </c>
       <c r="R816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -47622,7 +47622,7 @@
         <v>2</v>
       </c>
       <c r="R842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843">
@@ -47902,7 +47902,7 @@
         <v>1</v>
       </c>
       <c r="R847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -48910,7 +48910,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -49862,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="R882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -49974,7 +49974,7 @@
         <v>2</v>
       </c>
       <c r="R884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885">
@@ -50254,7 +50254,7 @@
         <v>1</v>
       </c>
       <c r="R889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -50422,7 +50422,7 @@
         <v>2</v>
       </c>
       <c r="R892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -51094,7 +51094,7 @@
         <v>1</v>
       </c>
       <c r="R904" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -51990,7 +51990,7 @@
         <v>1</v>
       </c>
       <c r="R920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -52214,7 +52214,7 @@
         <v>2</v>
       </c>
       <c r="R924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -52662,7 +52662,7 @@
         <v>2</v>
       </c>
       <c r="R932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
@@ -53782,7 +53782,7 @@
         <v>2</v>
       </c>
       <c r="R952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -54286,7 +54286,7 @@
         <v>2</v>
       </c>
       <c r="R961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -55630,7 +55630,7 @@
         <v>2</v>
       </c>
       <c r="R985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -55910,7 +55910,7 @@
         <v>1</v>
       </c>
       <c r="R990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -56358,7 +56358,7 @@
         <v>1</v>
       </c>
       <c r="R998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -56974,7 +56974,7 @@
         <v>2</v>
       </c>
       <c r="R1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010">
@@ -57702,7 +57702,7 @@
         <v>1</v>
       </c>
       <c r="R1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023">
@@ -57926,7 +57926,7 @@
         <v>2</v>
       </c>
       <c r="R1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027">
@@ -58710,7 +58710,7 @@
         <v>1</v>
       </c>
       <c r="R1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -60222,7 +60222,7 @@
         <v>2</v>
       </c>
       <c r="R1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -60894,7 +60894,7 @@
         <v>2</v>
       </c>
       <c r="R1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -62182,7 +62182,7 @@
         <v>1</v>
       </c>
       <c r="R1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -65430,7 +65430,7 @@
         <v>2</v>
       </c>
       <c r="R1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -65766,7 +65766,7 @@
         <v>1</v>
       </c>
       <c r="R1166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167">
@@ -67054,7 +67054,7 @@
         <v>2</v>
       </c>
       <c r="R1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -68006,7 +68006,7 @@
         <v>2</v>
       </c>
       <c r="R1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -68398,7 +68398,7 @@
         <v>2</v>
       </c>
       <c r="R1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214">
@@ -68846,7 +68846,7 @@
         <v>1</v>
       </c>
       <c r="R1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -71422,7 +71422,7 @@
         <v>2</v>
       </c>
       <c r="R1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -71646,7 +71646,7 @@
         <v>1</v>
       </c>
       <c r="R1271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272">
@@ -71814,7 +71814,7 @@
         <v>2</v>
       </c>
       <c r="R1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -73158,7 +73158,7 @@
         <v>1</v>
       </c>
       <c r="R1298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -73998,7 +73998,7 @@
         <v>2</v>
       </c>
       <c r="R1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -74390,7 +74390,7 @@
         <v>1</v>
       </c>
       <c r="R1320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321">
@@ -74782,7 +74782,7 @@
         <v>2</v>
       </c>
       <c r="R1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -75342,7 +75342,7 @@
         <v>2</v>
       </c>
       <c r="R1337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -75622,7 +75622,7 @@
         <v>1</v>
       </c>
       <c r="R1342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -76070,7 +76070,7 @@
         <v>2</v>
       </c>
       <c r="R1350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -76798,7 +76798,7 @@
         <v>1</v>
       </c>
       <c r="R1363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364">
@@ -76966,7 +76966,7 @@
         <v>2</v>
       </c>
       <c r="R1366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -77414,7 +77414,7 @@
         <v>1</v>
       </c>
       <c r="R1374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -78198,7 +78198,7 @@
         <v>1</v>
       </c>
       <c r="R1388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389">
@@ -79094,7 +79094,7 @@
         <v>2</v>
       </c>
       <c r="R1404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
@@ -79430,7 +79430,7 @@
         <v>1</v>
       </c>
       <c r="R1410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1411">
@@ -80382,7 +80382,7 @@
         <v>1</v>
       </c>
       <c r="R1427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428">
@@ -82118,7 +82118,7 @@
         <v>2</v>
       </c>
       <c r="R1458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1459">
@@ -82734,7 +82734,7 @@
         <v>2</v>
       </c>
       <c r="R1469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470">
@@ -83688,6 +83688,114 @@
       <c r="R1486" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>2479.75</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>2498</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>2426.550048828125</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>2441.300048828125</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>2441.300048828125</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>8617434</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>2490.5</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>2427.050048828125</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>2473.050048828125</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>2473.050048828125</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>10050168</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
+++ b/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -83621,7 +83621,7 @@
         <v>23</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,981 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>2461.050048828125</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>2450.10009765625</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>2547</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>2547</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>9755776</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>2639.5</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>2536.25</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>2622.25</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>2622.25</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>9407687</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>2628</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>2751.199951171875</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>2613.64990234375</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>2727</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>2727</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>11456728</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>2705.699951171875</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>2811.300048828125</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>2670</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>2711.050048828125</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>2711.050048828125</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>13731794</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>2711.199951171875</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>2759.5</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>2675.050048828125</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>2692.550048828125</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>2692.550048828125</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>7893759</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>2675.949951171875</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>2781.85009765625</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>2666.199951171875</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>2747.199951171875</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>2747.199951171875</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>9876829</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>2738</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>2763.39990234375</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>2706.60009765625</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>2748.25</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>2748.25</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>5023336</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>2750.050048828125</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>2735.050048828125</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>2815.60009765625</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>2815.60009765625</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>7310293</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>2815.60009765625</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>2834.949951171875</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>2745</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>2778</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>2778</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>10392651</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>2794</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>2866.449951171875</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>2771.64990234375</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>2838.949951171875</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>2838.949951171875</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>8238955</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>2853.10009765625</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>2963.39990234375</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>2843.199951171875</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>2932.949951171875</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>2932.949951171875</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>11149568</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>2989.35009765625</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>2807.39990234375</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>2977.60009765625</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>2977.60009765625</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>8407156</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>2980</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>3035</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>2905.10009765625</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>2966.25</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>2966.25</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>9165102</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>2964.199951171875</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>2997.89990234375</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>2817.050048828125</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>2848.75</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>2848.75</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>6502277</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>2845</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>2886</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>2733.199951171875</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>2783.199951171875</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>2783.199951171875</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>7263130</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>2791.60009765625</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>2804.699951171875</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>2693.449951171875</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>2717.10009765625</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>2717.10009765625</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>5632992</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>2715</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>2738</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>2452.60009765625</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>2528.050048828125</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>2528.050048828125</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>15473993</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>2589.60009765625</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>2520.10009765625</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>2528.25</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>2528.25</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>5650122</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
+++ b/stock_historical_data/1wk/HINDUNILVR.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1506"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -83853,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83907,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83961,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>2</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84015,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84069,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84123,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84177,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84231,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84285,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84339,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84393,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84447,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84501,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84555,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84609,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84663,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84717,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84771,7 +84805,1101 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>2536.898331106955</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>2536.898331106955</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>2456.319286253176</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>2497.754150390625</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>6041795</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>2509</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>2514.89990234375</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>2383.699951171875</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>2389.199951171875</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>6505209</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>2401.14990234375</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>2452.10009765625</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>2375.75</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>2445.25</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>5495885</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>2470</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>2539.14990234375</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>2453.199951171875</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>2496.14990234375</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>10634413</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>2515</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>2450.050048828125</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>2483.800048828125</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>7349957</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>2465</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>2476.949951171875</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>2333.449951171875</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>2390.10009765625</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>12659042</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>2390.300048828125</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>2393</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>2324.64990234375</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>2333.89990234375</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>8093130</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>2337</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>2356.949951171875</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>2315.25</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>2341.25</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>3340430</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>2341.5</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>2414.60009765625</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>2315.5</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>2406.25</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>6287818</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>2418</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>2473.64990234375</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>2361.64990234375</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>2442.050048828125</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>6853716</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>2417.050048828125</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>2468</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>2326.050048828125</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>2354</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>9958505</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>2356.449951171875</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>2380.800048828125</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>2253.85009765625</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>2368.10009765625</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>10980794</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>2602</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>2361.14990234375</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>2506.050048828125</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>11576197</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>2505</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>2520</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>2336.10009765625</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>2363.85009765625</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>7866085</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>2370.89990234375</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>2398</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>2296.550048828125</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>2318.35009765625</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>6527870</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>2318.35009765625</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>2338.550048828125</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>2226.39990234375</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>2241.64990234375</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>7953921</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>2269.64990234375</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>2185.85009765625</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>2190.25</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>8998896</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>2199</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>2229.800048828125</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>2136</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>2204.550048828125</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>7847697</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>2267.14990234375</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>2164.449951171875</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>2174.800048828125</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>5940119</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>2161</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>2255.199951171875</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>2156.5</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>2246.199951171875</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>6032395</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>2250.25</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>2296</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>2258.85009765625</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>11133430</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
